--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/HKBCCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/HKBCCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>HKBCCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1620.5215179198397</v>
       </c>
       <c r="C2" t="n">
-        <v>117.85219250576255</v>
+        <v>1397.976312485031</v>
       </c>
       <c r="D2" t="n">
-        <v>110.94533151035697</v>
-      </c>
-      <c r="E2" t="n">
-        <v>124.75905350116811</v>
+        <v>1843.0667233546483</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1627.9080445461227</v>
       </c>
       <c r="C3" t="n">
-        <v>124.99208939409591</v>
+        <v>1281.235582854446</v>
       </c>
       <c r="D3" t="n">
-        <v>115.46988744147977</v>
-      </c>
-      <c r="E3" t="n">
-        <v>134.51429134671204</v>
+        <v>1974.5805062377995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1621.45481747936</v>
       </c>
       <c r="C4" t="n">
-        <v>125.95891968078618</v>
+        <v>1193.2661708207331</v>
       </c>
       <c r="D4" t="n">
-        <v>114.7492294486819</v>
-      </c>
-      <c r="E4" t="n">
-        <v>137.16860991289045</v>
+        <v>2049.6434641379865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1649.169078996297</v>
       </c>
       <c r="C5" t="n">
-        <v>127.50943661008372</v>
+        <v>1150.1991443530467</v>
       </c>
       <c r="D5" t="n">
-        <v>115.0940311961517</v>
-      </c>
-      <c r="E5" t="n">
-        <v>139.92484202401576</v>
+        <v>2148.1390136395476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1688.3113783370297</v>
       </c>
       <c r="C6" t="n">
-        <v>119.10423524052727</v>
+        <v>1128.1623389306546</v>
       </c>
       <c r="D6" t="n">
-        <v>105.787505527457</v>
-      </c>
-      <c r="E6" t="n">
-        <v>132.42096495359752</v>
+        <v>2248.460417743405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1694.831949675436</v>
       </c>
       <c r="C7" t="n">
-        <v>126.42366574828115</v>
+        <v>1079.3320991026305</v>
       </c>
       <c r="D7" t="n">
-        <v>112.41583380064851</v>
-      </c>
-      <c r="E7" t="n">
-        <v>140.43149769591378</v>
+        <v>2310.331800248241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1688.6686764437534</v>
       </c>
       <c r="C8" t="n">
-        <v>127.55249606141618</v>
+        <v>1022.4702724749101</v>
       </c>
       <c r="D8" t="n">
-        <v>113.00618973886532</v>
-      </c>
-      <c r="E8" t="n">
-        <v>142.09880238396704</v>
+        <v>2354.8670804125964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1716.2858507003498</v>
       </c>
       <c r="C9" t="n">
-        <v>129.24919178804876</v>
+        <v>1002.9614851113056</v>
       </c>
       <c r="D9" t="n">
-        <v>114.27875038610007</v>
-      </c>
-      <c r="E9" t="n">
-        <v>144.21963318999747</v>
+        <v>2429.610216289394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1755.4606584440764</v>
       </c>
       <c r="C10" t="n">
-        <v>120.97589311788852</v>
+        <v>997.9432811993053</v>
       </c>
       <c r="D10" t="n">
-        <v>105.66879236816881</v>
-      </c>
-      <c r="E10" t="n">
-        <v>136.2829938676082</v>
+        <v>2512.9780356888477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1761.9703447676877</v>
       </c>
       <c r="C11" t="n">
-        <v>128.4143444578369</v>
+        <v>962.6975572020784</v>
       </c>
       <c r="D11" t="n">
-        <v>112.8385043696768</v>
-      </c>
-      <c r="E11" t="n">
-        <v>143.99018454599698</v>
+        <v>2561.2431323332967</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1755.8107162412557</v>
       </c>
       <c r="C12" t="n">
-        <v>129.65057180348998</v>
+        <v>916.8588500041211</v>
       </c>
       <c r="D12" t="n">
-        <v>113.85929787232371</v>
-      </c>
-      <c r="E12" t="n">
-        <v>145.44184573465625</v>
+        <v>2594.76258247839</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1783.4266701158301</v>
       </c>
       <c r="C13" t="n">
-        <v>131.44417596523442</v>
+        <v>906.5892452749553</v>
       </c>
       <c r="D13" t="n">
-        <v>115.47963980666327</v>
-      </c>
-      <c r="E13" t="n">
-        <v>147.40871212380557</v>
+        <v>2660.264094956705</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1822.6018864885618</v>
       </c>
       <c r="C14" t="n">
-        <v>123.25832146904851</v>
+        <v>909.4494487873703</v>
       </c>
       <c r="D14" t="n">
-        <v>107.15408949096913</v>
-      </c>
-      <c r="E14" t="n">
-        <v>139.36255344712788</v>
+        <v>2735.754324189754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1829.1114359880794</v>
       </c>
       <c r="C15" t="n">
-        <v>130.775677019484</v>
+        <v>881.033948029061</v>
       </c>
       <c r="D15" t="n">
-        <v>114.5585914901546</v>
-      </c>
-      <c r="E15" t="n">
-        <v>146.9927625488134</v>
+        <v>2777.1889239470975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1822.951853275411</v>
       </c>
       <c r="C16" t="n">
-        <v>132.08310264113007</v>
+        <v>841.1909571310476</v>
       </c>
       <c r="D16" t="n">
-        <v>115.7747069415298</v>
-      </c>
-      <c r="E16" t="n">
-        <v>148.39149834073032</v>
+        <v>2804.712749419774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1850.567791809844</v>
       </c>
       <c r="C17" t="n">
-        <v>133.94095172051675</v>
+        <v>836.2414162608981</v>
       </c>
       <c r="D17" t="n">
-        <v>117.55858588037437</v>
-      </c>
-      <c r="E17" t="n">
-        <v>150.32331756065915</v>
+        <v>2864.89416735879</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1889.7430133190219</v>
       </c>
       <c r="C18" t="n">
-        <v>125.81306786175558</v>
+        <v>843.8646583343573</v>
       </c>
       <c r="D18" t="n">
-        <v>109.3707202710648</v>
-      </c>
-      <c r="E18" t="n">
-        <v>142.25541545244636</v>
+        <v>2935.6213683036867</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1896.252561098668</v>
       </c>
       <c r="C19" t="n">
-        <v>133.38273252747626</v>
+        <v>819.7466060443675</v>
       </c>
       <c r="D19" t="n">
-        <v>116.89170808552011</v>
-      </c>
-      <c r="E19" t="n">
-        <v>149.87375696943243</v>
+        <v>2972.758516152968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1890.0929789618758</v>
       </c>
       <c r="C20" t="n">
-        <v>134.73735865723245</v>
+        <v>783.8070263597043</v>
       </c>
       <c r="D20" t="n">
-        <v>118.20680670376481</v>
-      </c>
-      <c r="E20" t="n">
-        <v>151.26791061070008</v>
+        <v>2996.378931564047</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1917.7089173034842</v>
       </c>
       <c r="C21" t="n">
-        <v>136.63779855379715</v>
+        <v>782.4238664708012</v>
       </c>
       <c r="D21" t="n">
-        <v>120.07513241773005</v>
-      </c>
-      <c r="E21" t="n">
-        <v>153.20046468986428</v>
+        <v>3052.993968136167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1956.884138877227</v>
       </c>
       <c r="C22" t="n">
-        <v>128.54834601242052</v>
+        <v>793.3225013423844</v>
       </c>
       <c r="D22" t="n">
-        <v>111.95957797460544</v>
-      </c>
-      <c r="E22" t="n">
-        <v>145.13711405023562</v>
+        <v>3120.44577641207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1963.393686635254</v>
       </c>
       <c r="C23" t="n">
-        <v>136.15268872035244</v>
+        <v>772.2265186658352</v>
       </c>
       <c r="D23" t="n">
-        <v>119.54269844216702</v>
-      </c>
-      <c r="E23" t="n">
-        <v>152.76267899853787</v>
+        <v>3154.5608546046724</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1957.234104505701</v>
       </c>
       <c r="C24" t="n">
-        <v>137.53860616910174</v>
+        <v>739.0868392904118</v>
       </c>
       <c r="D24" t="n">
-        <v>120.91135645034069</v>
-      </c>
-      <c r="E24" t="n">
-        <v>154.1658558878628</v>
+        <v>3175.38136972099</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1984.8500428448856</v>
       </c>
       <c r="C25" t="n">
-        <v>139.46728141523906</v>
+        <v>740.3074371236246</v>
       </c>
       <c r="D25" t="n">
-        <v>122.82599203825113</v>
-      </c>
-      <c r="E25" t="n">
-        <v>156.10857079222697</v>
+        <v>3229.3926485661464</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2024.02526441944</v>
       </c>
       <c r="C26" t="n">
-        <v>131.40330670577043</v>
+        <v>753.6356253089878</v>
       </c>
       <c r="D26" t="n">
-        <v>114.75059478393227</v>
-      </c>
-      <c r="E26" t="n">
-        <v>148.0560186276086</v>
+        <v>3294.4149035298924</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2030.5348121771951</v>
       </c>
       <c r="C27" t="n">
-        <v>139.0306390323386</v>
+        <v>734.8136335037158</v>
       </c>
       <c r="D27" t="n">
-        <v>122.36863249743557</v>
-      </c>
-      <c r="E27" t="n">
-        <v>155.69264556724164</v>
+        <v>3326.255990850674</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2024.3752300477329</v>
       </c>
       <c r="C28" t="n">
-        <v>140.43730089006846</v>
+        <v>703.8083401982384</v>
       </c>
       <c r="D28" t="n">
-        <v>123.7677303781946</v>
-      </c>
-      <c r="E28" t="n">
-        <v>157.1068714019423</v>
+        <v>3344.9421198972273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2051.9911683868872</v>
       </c>
       <c r="C29" t="n">
-        <v>142.38469460695393</v>
+        <v>707.0374709420446</v>
       </c>
       <c r="D29" t="n">
-        <v>125.70896793270985</v>
-      </c>
-      <c r="E29" t="n">
-        <v>159.06042128119802</v>
+        <v>3396.94486583173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2091.166389961452</v>
       </c>
       <c r="C30" t="n">
-        <v>134.33761028696222</v>
+        <v>722.2602624368735</v>
       </c>
       <c r="D30" t="n">
-        <v>117.65687285679398</v>
-      </c>
-      <c r="E30" t="n">
-        <v>151.01834771713047</v>
+        <v>3460.07251748603</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2097.6759377192034</v>
       </c>
       <c r="C31" t="n">
-        <v>141.9801834556119</v>
+        <v>705.229341372284</v>
       </c>
       <c r="D31" t="n">
-        <v>125.29536730894468</v>
-      </c>
-      <c r="E31" t="n">
-        <v>158.66499960227912</v>
+        <v>3490.122534066123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2091.5163555897425</v>
       </c>
       <c r="C32" t="n">
-        <v>143.4005977059478</v>
+        <v>675.9206995558931</v>
       </c>
       <c r="D32" t="n">
-        <v>126.71246134722537</v>
-      </c>
-      <c r="E32" t="n">
-        <v>160.08873406467023</v>
+        <v>3507.112011623592</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2119.132293928896</v>
       </c>
       <c r="C33" t="n">
-        <v>145.3604007307559</v>
+        <v>680.7600892872431</v>
       </c>
       <c r="D33" t="n">
-        <v>128.6695614965029</v>
-      </c>
-      <c r="E33" t="n">
-        <v>162.05123996500893</v>
+        <v>3557.5044985705495</v>
       </c>
     </row>
   </sheetData>
